--- a/Documents/BurnDown Sprint 2.xlsx
+++ b/Documents/BurnDown Sprint 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -711,13 +711,31 @@
                   <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.2</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.4</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.60000000000001</c:v>
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,11 +767,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1668949264"/>
-        <c:axId val="-1668269744"/>
+        <c:axId val="-1282199904"/>
+        <c:axId val="-1333209568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1668949264"/>
+        <c:axId val="-1282199904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1668269744"/>
+        <c:crossAx val="-1333209568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1668269744"/>
+        <c:axId val="-1333209568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1668949264"/>
+        <c:crossAx val="-1282199904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1217,11 +1235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1711150192"/>
-        <c:axId val="-1711147760"/>
+        <c:axId val="-1333183712"/>
+        <c:axId val="-1333179952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1711150192"/>
+        <c:axId val="-1333183712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1711147760"/>
+        <c:crossAx val="-1333179952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1711147760"/>
+        <c:axId val="-1333179952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,7 +1462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1711150192"/>
+        <c:crossAx val="-1333183712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2619,14 +2637,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>120247</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>140853</xdr:rowOff>
+      <xdr:colOff>222873</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>448990</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>25657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2648,16 +2666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>42589</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101729</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>632691</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>314549</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>378691</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2945,7 +2963,7 @@
   <dimension ref="B1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3124,16 +3142,31 @@
         <v>76</v>
       </c>
       <c r="D4">
-        <f>76-3.8</f>
-        <v>72.2</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <f>72.2-3.8</f>
-        <v>68.400000000000006</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1">
-        <f>68.4-3.8</f>
-        <v>64.600000000000009</v>
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">

--- a/Documents/BurnDown Sprint 2.xlsx
+++ b/Documents/BurnDown Sprint 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,6 +737,21 @@
                 <c:pt idx="9">
                   <c:v>50.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -767,11 +782,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1282199904"/>
-        <c:axId val="-1333209568"/>
+        <c:axId val="-1290356320"/>
+        <c:axId val="-1290353936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1282199904"/>
+        <c:axId val="-1290356320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1333209568"/>
+        <c:crossAx val="-1290353936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1333209568"/>
+        <c:axId val="-1290353936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1282199904"/>
+        <c:crossAx val="-1290356320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1235,11 +1250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1333183712"/>
-        <c:axId val="-1333179952"/>
+        <c:axId val="-1289527728"/>
+        <c:axId val="-1333044032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1333183712"/>
+        <c:axId val="-1289527728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1333179952"/>
+        <c:crossAx val="-1333044032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1333179952"/>
+        <c:axId val="-1333044032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1333183712"/>
+        <c:crossAx val="-1289527728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2963,7 +2978,7 @@
   <dimension ref="B1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3167,6 +3182,21 @@
       </c>
       <c r="L4">
         <v>50</v>
+      </c>
+      <c r="M4">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>29</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">

--- a/Documents/BurnDown Sprint 2.xlsx
+++ b/Documents/BurnDown Sprint 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/GitHub/IFB299/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/IFB299/IFB299/Documents/Burn Down Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,10 +479,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$V$2</c:f>
+              <c:f>Sheet1!$C$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>76.0</c:v>
                 </c:pt>
@@ -542,6 +542,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,6 +755,24 @@
                 <c:pt idx="14">
                   <c:v>29.0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -782,11 +803,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1290356320"/>
-        <c:axId val="-1290353936"/>
+        <c:axId val="-1208795024"/>
+        <c:axId val="-1212420816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1290356320"/>
+        <c:axId val="-1208795024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1290353936"/>
+        <c:crossAx val="-1212420816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -893,7 +914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1290353936"/>
+        <c:axId val="-1212420816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1290356320"/>
+        <c:crossAx val="-1208795024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1231,10 +1252,19 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$D$9</c:f>
+              <c:f>Sheet1!$C$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1250,11 +1280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1289527728"/>
-        <c:axId val="-1333044032"/>
+        <c:axId val="-1250682768"/>
+        <c:axId val="-1250267472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1289527728"/>
+        <c:axId val="-1250682768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1333044032"/>
+        <c:crossAx val="-1250267472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1366,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1333044032"/>
+        <c:axId val="-1250267472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1289527728"/>
+        <c:crossAx val="-1250682768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2977,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3198,6 +3228,24 @@
       <c r="Q4">
         <v>29</v>
       </c>
+      <c r="R4">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>26</v>
+      </c>
+      <c r="T4">
+        <v>25</v>
+      </c>
+      <c r="U4">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -3235,6 +3283,15 @@
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.2">

--- a/Documents/BurnDown Sprint 2.xlsx
+++ b/Documents/BurnDown Sprint 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/IFB299/IFB299/Documents/Burn Down Charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/IFB299/IFB299/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -803,11 +803,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-1208795024"/>
-        <c:axId val="-1212420816"/>
+        <c:axId val="-1155730848"/>
+        <c:axId val="-1156328752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1208795024"/>
+        <c:axId val="-1155730848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1212420816"/>
+        <c:crossAx val="-1156328752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -914,7 +914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1212420816"/>
+        <c:axId val="-1156328752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1208795024"/>
+        <c:crossAx val="-1155730848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1280,11 +1280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1250682768"/>
-        <c:axId val="-1250267472"/>
+        <c:axId val="-1154124352"/>
+        <c:axId val="-1154272288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1250682768"/>
+        <c:axId val="-1154124352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250267472"/>
+        <c:crossAx val="-1154272288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1250267472"/>
+        <c:axId val="-1154272288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250682768"/>
+        <c:crossAx val="-1154124352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
